--- a/REGULAR/CTO/JORGE, CAROLINA.xlsx
+++ b/REGULAR/CTO/JORGE, CAROLINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC25E4-0F47-46F1-A7B0-C7ABE9AE0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="484">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1493,11 +1494,14 @@
   <si>
     <t>UT(0-0-21)</t>
   </si>
+  <si>
+    <t>12/11,13/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2184,7 +2188,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2201,26 +2205,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K622"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K624" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2527,34 +2531,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K622"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A577" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A586" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="K591" sqref="K591"/>
+      <selection pane="bottomLeft" activeCell="K597" sqref="K597"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -2577,7 +2581,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2603,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2625,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>17</v>
@@ -2629,7 +2633,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2642,7 +2646,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2659,7 +2663,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -2703,7 +2707,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.980999999999995</v>
+        <v>87.480999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2713,12 +2717,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.875</v>
+        <v>237.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2740,7 +2744,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>35827</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>101</v>
@@ -2786,7 +2790,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>35855</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>105</v>
@@ -2830,7 +2834,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>35886</v>
       </c>
@@ -2854,7 +2858,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>35916</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>107</v>
@@ -2899,7 +2903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>111</v>
@@ -2916,7 +2920,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>35947</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>107</v>
@@ -2959,7 +2963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>115</v>
@@ -2976,7 +2980,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>35977</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>107</v>
@@ -3021,7 +3025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>117</v>
@@ -3038,7 +3042,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>36008</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>120</v>
@@ -3081,7 +3085,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>36039</v>
       </c>
@@ -3105,7 +3109,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>36069</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>36100</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>35896</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>108</v>
@@ -3174,7 +3178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>124</v>
@@ -3191,7 +3195,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>36130</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>35897</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>127</v>
@@ -3236,7 +3240,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>107</v>
@@ -3255,7 +3259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>128</v>
@@ -3272,7 +3276,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>91</v>
       </c>
@@ -3294,7 +3298,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>36161</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>130</v>
@@ -3337,7 +3341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>131</v>
@@ -3354,7 +3358,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>36192</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>134</v>
@@ -3399,7 +3403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>136</v>
@@ -3416,7 +3420,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>36220</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>36163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>137</v>
@@ -3459,7 +3463,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>36251</v>
       </c>
@@ -3483,7 +3487,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>36281</v>
       </c>
@@ -3507,7 +3511,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>107</v>
@@ -3524,7 +3528,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>139</v>
@@ -3541,7 +3545,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>36312</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>107</v>
@@ -3584,7 +3588,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>107</v>
@@ -3603,7 +3607,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>141</v>
@@ -3620,7 +3624,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>36342</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>108</v>
@@ -3665,7 +3669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>143</v>
@@ -3682,7 +3686,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>36373</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>146</v>
@@ -3725,7 +3729,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>36404</v>
       </c>
@@ -3751,7 +3755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>148</v>
@@ -3768,7 +3772,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>36434</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>36351</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>36465</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>36383</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>150</v>
@@ -3837,7 +3841,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>36495</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>134</v>
@@ -3882,7 +3886,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>152</v>
@@ -3899,7 +3903,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>92</v>
       </c>
@@ -3921,7 +3925,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>36526</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>36557</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>154</v>
@@ -3988,7 +3992,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>36586</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>172</v>
@@ -4029,7 +4033,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>36617</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>107</v>
@@ -4074,7 +4078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>168</v>
@@ -4091,7 +4095,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>36647</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>156</v>
@@ -4134,7 +4138,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>36678</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>107</v>
@@ -4177,7 +4181,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>159</v>
@@ -4194,7 +4198,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>36708</v>
       </c>
@@ -4218,7 +4222,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>36739</v>
       </c>
@@ -4242,7 +4246,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>161</v>
@@ -4264,7 +4268,7 @@
         <v>36777</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>36770</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>36565</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -4310,7 +4314,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>36800</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>163</v>
@@ -4353,7 +4357,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>36831</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>108</v>
@@ -4401,7 +4405,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>167</v>
@@ -4421,7 +4425,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>36861</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4464,7 +4468,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>164</v>
@@ -4481,7 +4485,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>93</v>
       </c>
@@ -4503,7 +4507,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>36892</v>
       </c>
@@ -4527,7 +4531,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>36923</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>107</v>
@@ -4572,7 +4576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>127</v>
@@ -4591,7 +4595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>36951</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>103</v>
@@ -4634,7 +4638,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>36982</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>37012</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>37043</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>37073</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>37104</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -4781,7 +4785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>37135</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>37165</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>149</v>
@@ -4852,7 +4856,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>186</v>
@@ -4869,7 +4873,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>37196</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>107</v>
@@ -4914,7 +4918,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -4931,7 +4935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>187</v>
@@ -4948,7 +4952,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>37226</v>
       </c>
@@ -4968,7 +4972,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>94</v>
       </c>
@@ -4990,7 +4994,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>37257</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -5033,7 +5037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>107</v>
@@ -5052,7 +5056,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>202</v>
@@ -5069,7 +5073,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>37288</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>204</v>
@@ -5115,7 +5119,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>37316</v>
       </c>
@@ -5139,7 +5143,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>37347</v>
       </c>
@@ -5163,7 +5167,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>37377</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>103</v>
@@ -5209,7 +5213,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>37408</v>
       </c>
@@ -5233,7 +5237,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>37438</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>37353</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>107</v>
@@ -5281,7 +5285,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>211</v>
@@ -5301,7 +5305,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>37469</v>
       </c>
@@ -5325,7 +5329,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>37500</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>213</v>
@@ -5368,7 +5372,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>37530</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>108</v>
@@ -5413,7 +5417,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>103</v>
@@ -5430,7 +5434,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>37561</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>217</v>
@@ -5473,7 +5477,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>37591</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>37327</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>95</v>
       </c>
@@ -5521,7 +5525,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>37622</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>107</v>
@@ -5566,7 +5570,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>218</v>
@@ -5583,7 +5587,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>37653</v>
       </c>
@@ -5607,7 +5611,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>220</v>
@@ -5624,7 +5628,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>37681</v>
       </c>
@@ -5644,7 +5648,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>37712</v>
       </c>
@@ -5668,7 +5672,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>37742</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>103</v>
@@ -5711,7 +5715,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>37773</v>
       </c>
@@ -5737,7 +5741,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>37803</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>211</v>
@@ -5780,7 +5784,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>37834</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>108</v>
@@ -5825,7 +5829,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>226</v>
@@ -5842,7 +5846,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>37865</v>
       </c>
@@ -5866,7 +5870,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>37895</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>37812</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>228</v>
@@ -5912,7 +5916,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>37926</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>37936</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>108</v>
@@ -5960,7 +5964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>108</v>
@@ -5982,7 +5986,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -6001,7 +6005,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>229</v>
@@ -6021,7 +6025,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>37956</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>37937</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>103</v>
@@ -6067,7 +6071,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>232</v>
@@ -6084,7 +6088,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="48" t="s">
         <v>96</v>
       </c>
@@ -6106,7 +6110,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>37987</v>
       </c>
@@ -6130,7 +6134,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <v>38018</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>235</v>
@@ -6176,7 +6180,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>38047</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>103</v>
@@ -6211,7 +6215,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.980999999999995</v>
+        <v>87.480999999999995</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -6221,14 +6225,14 @@
       <c r="H171" s="39"/>
       <c r="I171" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.875</v>
+        <v>237.375</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>237</v>
@@ -6248,7 +6252,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>38078</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>238</v>
@@ -6294,7 +6298,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>38108</v>
       </c>
@@ -6318,7 +6322,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>103</v>
@@ -6335,7 +6339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>38139</v>
       </c>
@@ -6359,7 +6363,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>38169</v>
       </c>
@@ -6383,7 +6387,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>38200</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>127</v>
@@ -6431,7 +6435,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>243</v>
@@ -6453,7 +6457,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>38231</v>
       </c>
@@ -6477,7 +6481,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>38261</v>
       </c>
@@ -6503,7 +6507,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>249</v>
@@ -6523,7 +6527,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>38292</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>251</v>
@@ -6564,7 +6568,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>38322</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>252</v>
@@ -6610,7 +6614,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="48" t="s">
         <v>97</v>
       </c>
@@ -6632,7 +6636,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>38353</v>
       </c>
@@ -6656,7 +6660,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>38384</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>107</v>
@@ -6704,7 +6708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>258</v>
@@ -6724,7 +6728,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <v>38412</v>
       </c>
@@ -6748,7 +6752,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>38443</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>261</v>
@@ -6792,7 +6796,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>38473</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>103</v>
@@ -6838,7 +6842,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -6860,7 +6864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>156</v>
@@ -6880,7 +6884,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>38504</v>
       </c>
@@ -6904,7 +6908,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <v>38534</v>
       </c>
@@ -6928,7 +6932,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>38565</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>265</v>
@@ -6974,7 +6978,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>38596</v>
       </c>
@@ -6998,7 +7002,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>38626</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>269</v>
@@ -7044,7 +7048,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>38657</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>103</v>
@@ -7087,7 +7091,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>167</v>
@@ -7107,7 +7111,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>38687</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>255</v>
@@ -7153,7 +7157,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="48" t="s">
         <v>98</v>
       </c>
@@ -7175,7 +7179,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>38718</v>
       </c>
@@ -7199,7 +7203,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>38749</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>275</v>
@@ -7242,7 +7246,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>38777</v>
       </c>
@@ -7266,7 +7270,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>38808</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>254</v>
@@ -7314,7 +7318,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>243</v>
@@ -7334,7 +7338,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <v>38838</v>
       </c>
@@ -7358,7 +7362,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>38869</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>149</v>
@@ -7404,7 +7408,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>281</v>
@@ -7424,7 +7428,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>38899</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7470,7 +7474,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>38930</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>149</v>
@@ -7516,7 +7520,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>106</v>
@@ -7536,7 +7540,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>38961</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>286</v>
@@ -7582,7 +7586,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>38991</v>
       </c>
@@ -7606,7 +7610,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>39022</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>103</v>
@@ -7650,7 +7654,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7672,7 +7676,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>290</v>
@@ -7692,7 +7696,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>39052</v>
       </c>
@@ -7716,7 +7720,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
         <v>99</v>
       </c>
@@ -7736,7 +7740,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39083</v>
       </c>
@@ -7760,7 +7764,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39114</v>
       </c>
@@ -7786,7 +7790,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>107</v>
@@ -7808,7 +7812,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>296</v>
@@ -7828,7 +7832,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39142</v>
       </c>
@@ -7852,7 +7856,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>39173</v>
       </c>
@@ -7876,7 +7880,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>39203</v>
       </c>
@@ -7900,7 +7904,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>39234</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -7946,7 +7950,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>302</v>
@@ -7966,7 +7970,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>39264</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>149</v>
@@ -8014,7 +8018,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>305</v>
@@ -8034,7 +8038,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>39295</v>
       </c>
@@ -8058,7 +8062,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>39326</v>
       </c>
@@ -8082,7 +8086,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>39356</v>
       </c>
@@ -8106,7 +8110,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>39387</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>311</v>
@@ -8150,7 +8154,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>39417</v>
       </c>
@@ -8174,7 +8178,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="48" t="s">
         <v>100</v>
       </c>
@@ -8194,7 +8198,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>39448</v>
       </c>
@@ -8218,7 +8222,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>39479</v>
@@ -8243,7 +8247,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f t="shared" ref="A261:A392" si="0">EDATE(A260,1)</f>
         <v>39508</v>
@@ -8268,7 +8272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>316</v>
@@ -8288,7 +8292,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>39539</v>
@@ -8313,7 +8317,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f t="shared" si="0"/>
         <v>39569</v>
@@ -8338,7 +8342,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>103</v>
@@ -8358,7 +8362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>254</v>
@@ -8380,7 +8384,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>39600</v>
@@ -8405,7 +8409,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f t="shared" si="0"/>
         <v>39630</v>
@@ -8430,7 +8434,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -8455,7 +8459,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <f t="shared" si="0"/>
         <v>39692</v>
@@ -8482,7 +8486,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>321</v>
@@ -8502,7 +8506,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <f>EDATE(A270,1)</f>
         <v>39722</v>
@@ -8529,7 +8533,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>107</v>
@@ -8551,7 +8555,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>322</v>
@@ -8571,7 +8575,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <f>EDATE(A272,1)</f>
         <v>39753</v>
@@ -8596,7 +8600,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>103</v>
@@ -8616,7 +8620,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>85</v>
@@ -8638,7 +8642,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>254</v>
@@ -8660,7 +8664,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>323</v>
@@ -8680,7 +8684,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A275,1)</f>
         <v>39783</v>
@@ -8705,7 +8709,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="48" t="s">
         <v>199</v>
       </c>
@@ -8727,7 +8731,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39814</v>
@@ -8752,7 +8756,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <f t="shared" si="0"/>
         <v>39845</v>
@@ -8777,7 +8781,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f t="shared" si="0"/>
         <v>39873</v>
@@ -8804,7 +8808,7 @@
         <v>39481</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>103</v>
@@ -8824,7 +8828,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>333</v>
@@ -8844,7 +8848,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>39904</v>
@@ -8869,7 +8873,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f t="shared" si="0"/>
         <v>39934</v>
@@ -8896,7 +8900,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>220</v>
@@ -8916,7 +8920,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>107</v>
@@ -8938,7 +8942,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>339</v>
@@ -8958,7 +8962,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <f>EDATE(A288,1)</f>
         <v>39965</v>
@@ -8983,7 +8987,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f t="shared" si="0"/>
         <v>39995</v>
@@ -9010,7 +9014,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>341</v>
@@ -9030,7 +9034,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <f>EDATE(A293,1)</f>
         <v>40026</v>
@@ -9055,7 +9059,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f t="shared" si="0"/>
         <v>40057</v>
@@ -9080,7 +9084,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f t="shared" si="0"/>
         <v>40087</v>
@@ -9107,7 +9111,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>344</v>
@@ -9127,7 +9131,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>40118</v>
@@ -9154,7 +9158,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>254</v>
@@ -9176,7 +9180,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -9198,7 +9202,7 @@
         <v>39459</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>107</v>
@@ -9217,7 +9221,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>348</v>
@@ -9237,7 +9241,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40148</v>
@@ -9262,7 +9266,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="48" t="s">
         <v>198</v>
       </c>
@@ -9277,7 +9281,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>40179</v>
@@ -9302,7 +9306,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -9329,7 +9333,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>85</v>
@@ -9348,7 +9352,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>149</v>
@@ -9367,7 +9371,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>121</v>
@@ -9384,7 +9388,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <f>EDATE(A307,1)</f>
         <v>40238</v>
@@ -9411,7 +9415,7 @@
         <v>40454</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>351</v>
@@ -9431,7 +9435,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A311,1)</f>
         <v>40269</v>
@@ -9458,7 +9462,7 @@
         <v>40302</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>107</v>
@@ -9480,7 +9484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>352</v>
@@ -9500,7 +9504,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>40299</v>
@@ -9527,7 +9531,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>107</v>
@@ -9549,7 +9553,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>205</v>
@@ -9569,7 +9573,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f>EDATE(A316,1)</f>
         <v>40330</v>
@@ -9596,7 +9600,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>103</v>
@@ -9616,7 +9620,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>85</v>
@@ -9638,7 +9642,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>353</v>
@@ -9658,7 +9662,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f>EDATE(A319,1)</f>
         <v>40360</v>
@@ -9685,7 +9689,7 @@
         <v>40397</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>107</v>
@@ -9707,7 +9711,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>163</v>
@@ -9727,7 +9731,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A323,1)</f>
         <v>40391</v>
@@ -9754,7 +9758,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>354</v>
@@ -9774,7 +9778,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>40422</v>
@@ -9801,7 +9805,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>355</v>
@@ -9821,7 +9825,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f>EDATE(A328,1)</f>
         <v>40452</v>
@@ -9848,7 +9852,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>103</v>
@@ -9868,7 +9872,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9890,7 +9894,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>152</v>
@@ -9910,7 +9914,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A330,1)</f>
         <v>40483</v>
@@ -9935,7 +9939,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f t="shared" si="0"/>
         <v>40513</v>
@@ -9960,7 +9964,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>356</v>
@@ -9980,7 +9984,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>197</v>
       </c>
@@ -10002,7 +10006,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A335,1)</f>
         <v>40544</v>
@@ -10027,7 +10031,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f t="shared" si="0"/>
         <v>40575</v>
@@ -10054,7 +10058,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>357</v>
@@ -10074,7 +10078,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>40603</v>
@@ -10101,7 +10105,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>163</v>
@@ -10121,7 +10125,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>40634</v>
@@ -10148,7 +10152,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>297</v>
@@ -10168,7 +10172,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>40664</v>
@@ -10195,7 +10199,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>220</v>
@@ -10215,7 +10219,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>378</v>
@@ -10235,7 +10239,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f>EDATE(A345,1)</f>
         <v>40695</v>
@@ -10262,7 +10266,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>254</v>
@@ -10284,7 +10288,7 @@
         <v>40640</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>376</v>
@@ -10304,7 +10308,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f>EDATE(A348,1)</f>
         <v>40725</v>
@@ -10329,7 +10333,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f t="shared" si="0"/>
         <v>40756</v>
@@ -10354,7 +10358,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f t="shared" si="0"/>
         <v>40787</v>
@@ -10381,7 +10385,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>380</v>
@@ -10401,7 +10405,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -10426,7 +10430,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f t="shared" si="0"/>
         <v>40848</v>
@@ -10453,7 +10457,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>103</v>
@@ -10473,7 +10477,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10493,7 +10497,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <f>EDATE(A356,1)</f>
         <v>40878</v>
@@ -10518,7 +10522,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>385</v>
@@ -10535,7 +10539,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="48" t="s">
         <v>196</v>
       </c>
@@ -10554,7 +10558,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f>EDATE(A359,1)</f>
         <v>40909</v>
@@ -10579,7 +10583,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f t="shared" si="0"/>
         <v>40940</v>
@@ -10604,7 +10608,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>387</v>
@@ -10624,7 +10628,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>40969</v>
@@ -10651,7 +10655,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>388</v>
@@ -10671,7 +10675,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f>EDATE(A365,1)</f>
         <v>41000</v>
@@ -10698,7 +10702,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>389</v>
@@ -10718,7 +10722,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <f>EDATE(A367,1)</f>
         <v>41030</v>
@@ -10745,7 +10749,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>220</v>
@@ -10765,7 +10769,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>390</v>
@@ -10785,7 +10789,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A369,1)</f>
         <v>41061</v>
@@ -10810,7 +10814,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -10837,7 +10841,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>302</v>
@@ -10857,7 +10861,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f>EDATE(A373,1)</f>
         <v>41122</v>
@@ -10882,7 +10886,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f t="shared" si="0"/>
         <v>41153</v>
@@ -10907,7 +10911,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <f t="shared" si="0"/>
         <v>41183</v>
@@ -10934,7 +10938,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>85</v>
@@ -10956,7 +10960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>267</v>
@@ -10976,7 +10980,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f>EDATE(A377,1)</f>
         <v>41214</v>
@@ -11003,7 +11007,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>103</v>
@@ -11023,7 +11027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>398</v>
@@ -11043,7 +11047,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f>EDATE(A380,1)</f>
         <v>41244</v>
@@ -11068,7 +11072,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="48" t="s">
         <v>195</v>
       </c>
@@ -11090,7 +11094,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>41275</v>
@@ -11115,7 +11119,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="0"/>
         <v>41306</v>
@@ -11142,7 +11146,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>103</v>
@@ -11159,7 +11163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>402</v>
@@ -11176,7 +11180,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41334</v>
@@ -11201,7 +11205,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <f t="shared" si="0"/>
         <v>41365</v>
@@ -11226,7 +11230,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f t="shared" si="0"/>
         <v>41395</v>
@@ -11251,7 +11255,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <f t="shared" si="0"/>
         <v>41426</v>
@@ -11276,7 +11280,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f t="shared" ref="A393:A486" si="1">EDATE(A392,1)</f>
         <v>41456</v>
@@ -11301,7 +11305,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f t="shared" si="1"/>
         <v>41487</v>
@@ -11328,7 +11332,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>247</v>
@@ -11348,7 +11352,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <f>EDATE(A394,1)</f>
         <v>41518</v>
@@ -11373,7 +11377,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f t="shared" si="1"/>
         <v>41548</v>
@@ -11400,7 +11404,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>410</v>
@@ -11420,7 +11424,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>41579</v>
@@ -11447,7 +11451,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>103</v>
@@ -11467,7 +11471,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>252</v>
@@ -11487,7 +11491,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f>EDATE(A399,1)</f>
         <v>41609</v>
@@ -11514,7 +11518,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>103</v>
@@ -11534,7 +11538,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>252</v>
@@ -11554,7 +11558,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>194</v>
       </c>
@@ -11576,7 +11580,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f>EDATE(A402,1)</f>
         <v>41640</v>
@@ -11601,7 +11605,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f t="shared" si="1"/>
         <v>41671</v>
@@ -11626,7 +11630,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f t="shared" si="1"/>
         <v>41699</v>
@@ -11651,7 +11655,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="1"/>
         <v>41730</v>
@@ -11676,7 +11680,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <f t="shared" si="1"/>
         <v>41760</v>
@@ -11703,7 +11707,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>107</v>
@@ -11722,7 +11726,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>419</v>
@@ -11739,7 +11743,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A410,1)</f>
         <v>41791</v>
@@ -11764,7 +11768,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f t="shared" si="1"/>
         <v>41821</v>
@@ -11791,7 +11795,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>103</v>
@@ -11811,7 +11815,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>154</v>
@@ -11831,7 +11835,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>41852</v>
@@ -11856,7 +11860,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" si="1"/>
         <v>41883</v>
@@ -11883,7 +11887,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>422</v>
@@ -11903,7 +11907,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <f>EDATE(A418,1)</f>
         <v>41913</v>
@@ -11928,7 +11932,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f t="shared" si="1"/>
         <v>41944</v>
@@ -11953,7 +11957,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>103</v>
@@ -11973,7 +11977,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>254</v>
@@ -11995,7 +11999,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>254</v>
@@ -12017,7 +12021,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>424</v>
@@ -12037,7 +12041,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EDATE(A421,1)</f>
         <v>41974</v>
@@ -12062,7 +12066,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>193</v>
       </c>
@@ -12084,7 +12088,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42005</v>
@@ -12109,7 +12113,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f>EDATE(A428,1)</f>
         <v>42036</v>
@@ -12136,7 +12140,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>433</v>
@@ -12153,7 +12157,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f>EDATE(A429,1)</f>
         <v>42064</v>
@@ -12180,7 +12184,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>103</v>
@@ -12197,7 +12201,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>291</v>
@@ -12214,7 +12218,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A431,1)</f>
         <v>42095</v>
@@ -12239,7 +12243,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23">
         <f t="shared" si="1"/>
         <v>42125</v>
@@ -12263,7 +12267,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>438</v>
@@ -12280,7 +12284,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <f>EDATE(A435,1)</f>
         <v>42156</v>
@@ -12305,7 +12309,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f t="shared" si="1"/>
         <v>42186</v>
@@ -12332,7 +12336,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>439</v>
@@ -12349,7 +12353,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>42217</v>
@@ -12374,7 +12378,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="1"/>
         <v>42248</v>
@@ -12401,7 +12405,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>441</v>
@@ -12418,7 +12422,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42278</v>
@@ -12445,7 +12449,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>127</v>
@@ -12467,7 +12471,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>154</v>
@@ -12487,7 +12491,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f>EDATE(A443,1)</f>
         <v>42309</v>
@@ -12512,7 +12516,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="1"/>
         <v>42339</v>
@@ -12539,7 +12543,7 @@
         <v>42197</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>103</v>
@@ -12559,7 +12563,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>254</v>
@@ -12579,7 +12583,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>448</v>
@@ -12596,7 +12600,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="48" t="s">
         <v>192</v>
       </c>
@@ -12618,7 +12622,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <f>EDATE(A447,1)</f>
         <v>42370</v>
@@ -12643,7 +12647,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23">
         <f t="shared" si="1"/>
         <v>42401</v>
@@ -12668,7 +12672,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f t="shared" si="1"/>
         <v>42430</v>
@@ -12693,7 +12697,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -12718,7 +12722,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23">
         <f t="shared" si="1"/>
         <v>42491</v>
@@ -12743,7 +12747,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>254</v>
@@ -12765,7 +12769,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>453</v>
@@ -12785,7 +12789,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f>EDATE(A456,1)</f>
         <v>42522</v>
@@ -12810,7 +12814,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -12835,7 +12839,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <f t="shared" si="1"/>
         <v>42583</v>
@@ -12860,7 +12864,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f t="shared" si="1"/>
         <v>42614</v>
@@ -12885,7 +12889,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -12910,7 +12914,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>108</v>
@@ -12932,7 +12936,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>456</v>
@@ -12952,7 +12956,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>42675</v>
@@ -12979,7 +12983,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>103</v>
@@ -12999,7 +13003,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>255</v>
@@ -13019,7 +13023,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>42705</v>
@@ -13044,7 +13048,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="48" t="s">
         <v>191</v>
       </c>
@@ -13066,7 +13070,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>42736</v>
@@ -13091,7 +13095,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f t="shared" si="1"/>
         <v>42767</v>
@@ -13116,7 +13120,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f t="shared" si="1"/>
         <v>42795</v>
@@ -13141,7 +13145,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -13166,7 +13170,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23">
         <f t="shared" si="1"/>
         <v>42856</v>
@@ -13191,7 +13195,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <f t="shared" si="1"/>
         <v>42887</v>
@@ -13216,7 +13220,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>103</v>
@@ -13236,7 +13240,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>465</v>
@@ -13256,7 +13260,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>42917</v>
@@ -13281,7 +13285,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23">
         <f t="shared" si="1"/>
         <v>42948</v>
@@ -13308,7 +13312,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>149</v>
@@ -13330,7 +13334,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>108</v>
@@ -13352,7 +13356,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>467</v>
@@ -13372,7 +13376,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A480,1)</f>
         <v>42979</v>
@@ -13397,7 +13401,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -13422,7 +13426,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23">
         <f t="shared" si="1"/>
         <v>43040</v>
@@ -13449,7 +13453,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>103</v>
@@ -13469,7 +13473,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>108</v>
@@ -13491,7 +13495,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>183</v>
@@ -13513,7 +13517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f>EDATE(A486,1)</f>
         <v>43070</v>
@@ -13540,7 +13544,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="48" t="s">
         <v>47</v>
       </c>
@@ -13558,7 +13562,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>43101</v>
       </c>
@@ -13578,7 +13582,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43132</v>
       </c>
@@ -13598,7 +13602,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43160</v>
       </c>
@@ -13618,7 +13622,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43191</v>
       </c>
@@ -13638,7 +13642,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="41">
         <v>43221</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>48</v>
@@ -13688,7 +13692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>43252</v>
       </c>
@@ -13708,7 +13712,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43282</v>
       </c>
@@ -13728,7 +13732,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43313</v>
       </c>
@@ -13748,7 +13752,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43344</v>
       </c>
@@ -13768,7 +13772,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43374</v>
       </c>
@@ -13788,7 +13792,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43405</v>
       </c>
@@ -13808,7 +13812,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>82</v>
@@ -13830,7 +13834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>52</v>
@@ -13854,7 +13858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>53</v>
@@ -13874,7 +13878,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -13894,7 +13898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -13914,7 +13918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43435</v>
       </c>
@@ -13934,7 +13938,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23" t="s">
         <v>58</v>
       </c>
@@ -13952,7 +13956,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43466</v>
       </c>
@@ -13972,7 +13976,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43497</v>
       </c>
@@ -13996,7 +14000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43525</v>
       </c>
@@ -14016,7 +14020,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43556</v>
       </c>
@@ -14036,7 +14040,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43586</v>
       </c>
@@ -14056,7 +14060,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43617</v>
       </c>
@@ -14076,7 +14080,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43647</v>
       </c>
@@ -14096,7 +14100,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>43678</v>
       </c>
@@ -14120,7 +14124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>83</v>
@@ -14142,7 +14146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>60</v>
@@ -14164,7 +14168,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>53</v>
@@ -14182,7 +14186,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43709</v>
       </c>
@@ -14202,7 +14206,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>43739</v>
       </c>
@@ -14222,7 +14226,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43770</v>
       </c>
@@ -14242,7 +14246,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43800</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>82</v>
@@ -14290,7 +14294,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="48" t="s">
         <v>64</v>
       </c>
@@ -14308,7 +14312,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43831</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>84</v>
@@ -14354,7 +14358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>43862</v>
       </c>
@@ -14374,7 +14378,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43891</v>
       </c>
@@ -14394,7 +14398,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>43922</v>
       </c>
@@ -14414,7 +14418,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>43952</v>
       </c>
@@ -14434,7 +14438,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43983</v>
       </c>
@@ -14454,7 +14458,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44013</v>
       </c>
@@ -14474,7 +14478,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44044</v>
       </c>
@@ -14494,7 +14498,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44075</v>
       </c>
@@ -14514,7 +14518,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44105</v>
       </c>
@@ -14534,7 +14538,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44136</v>
       </c>
@@ -14554,7 +14558,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44166</v>
       </c>
@@ -14578,7 +14582,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="48" t="s">
         <v>69</v>
       </c>
@@ -14596,7 +14600,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44197</v>
       </c>
@@ -14616,7 +14620,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44228</v>
       </c>
@@ -14636,7 +14640,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44256</v>
       </c>
@@ -14656,7 +14660,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44287</v>
       </c>
@@ -14676,7 +14680,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44317</v>
       </c>
@@ -14696,7 +14700,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44348</v>
       </c>
@@ -14716,7 +14720,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44378</v>
       </c>
@@ -14736,7 +14740,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44409</v>
       </c>
@@ -14760,7 +14764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44440</v>
       </c>
@@ -14780,7 +14784,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44470</v>
       </c>
@@ -14800,7 +14804,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44501</v>
       </c>
@@ -14820,7 +14824,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44531</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>53</v>
@@ -14866,7 +14870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>84</v>
@@ -14888,7 +14892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>72</v>
@@ -14908,7 +14912,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="48" t="s">
         <v>76</v>
       </c>
@@ -14926,7 +14930,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44562</v>
       </c>
@@ -14946,7 +14950,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44593</v>
       </c>
@@ -14966,7 +14970,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44621</v>
       </c>
@@ -14992,7 +14996,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>243</v>
@@ -15012,7 +15016,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44652</v>
       </c>
@@ -15038,7 +15042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>482</v>
@@ -15058,7 +15062,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="50"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
@@ -15084,7 +15088,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44713</v>
       </c>
@@ -15110,7 +15114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>226</v>
@@ -15130,7 +15134,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>44743</v>
       </c>
@@ -15156,7 +15160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>83</v>
@@ -15178,7 +15182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -15198,7 +15202,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>481</v>
@@ -15218,7 +15222,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="49"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44774</v>
       </c>
@@ -15242,7 +15246,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44805</v>
       </c>
@@ -15268,7 +15272,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>480</v>
@@ -15288,7 +15292,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="49"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44835</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>251</v>
@@ -15334,7 +15338,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="49"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>44866</v>
       </c>
@@ -15358,7 +15362,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>479</v>
@@ -15380,7 +15384,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>168</v>
@@ -15400,7 +15404,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>44896</v>
       </c>
@@ -15426,7 +15430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>476</v>
@@ -15448,7 +15452,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>478</v>
@@ -15468,7 +15472,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="48" t="s">
         <v>87</v>
       </c>
@@ -15486,7 +15490,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>44927</v>
       </c>
@@ -15506,7 +15510,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44958</v>
       </c>
@@ -15532,7 +15536,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44986</v>
       </c>
@@ -15552,7 +15556,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45017</v>
       </c>
@@ -15572,7 +15576,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>45047</v>
       </c>
@@ -15592,7 +15596,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>45078</v>
       </c>
@@ -15612,7 +15616,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>45108</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>45139</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45170</v>
       </c>
@@ -15686,49 +15690,59 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>45200</v>
       </c>
       <c r="B592" s="20"/>
-      <c r="C592" s="13"/>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>45231</v>
       </c>
-      <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
+      <c r="B593" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B594" s="20"/>
+      <c r="K593" s="49">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C594" s="13"/>
-      <c r="D594" s="39"/>
+      <c r="D594" s="39">
+        <v>1</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
       <c r="G594" s="13" t="str">
@@ -15738,15 +15752,19 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B595" s="20"/>
+      <c r="K594" s="49">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A595" s="40"/>
+      <c r="B595" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
+      <c r="D595" s="39">
+        <v>2</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
       <c r="G595" s="13" t="str">
@@ -15756,15 +15774,21 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K595" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B596" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B596" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>1</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
@@ -15774,11 +15798,13 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K596" s="49">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15794,9 +15820,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15812,9 +15838,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15830,9 +15856,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15848,9 +15874,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15866,9 +15892,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15884,9 +15910,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15902,9 +15928,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15920,9 +15946,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15938,9 +15964,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15956,9 +15982,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15974,9 +16000,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15992,9 +16018,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16010,9 +16036,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16028,9 +16054,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16046,9 +16072,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16064,9 +16090,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16082,9 +16108,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16100,9 +16126,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16118,9 +16144,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16136,9 +16162,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16154,9 +16180,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16172,8 +16198,10 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="40"/>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A619" s="40">
+        <v>45962</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
@@ -16188,8 +16216,10 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="40"/>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A620" s="40">
+        <v>45992</v>
+      </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
@@ -16204,7 +16234,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16220,21 +16250,53 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="41"/>
-      <c r="B622" s="15"/>
-      <c r="C622" s="42"/>
-      <c r="D622" s="43"/>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="40"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
       <c r="E622" s="9"/>
-      <c r="F622" s="15"/>
-      <c r="G622" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H622" s="43"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
       <c r="I622" s="9"/>
-      <c r="J622" s="12"/>
-      <c r="K622" s="15"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A624" s="41"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="43"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16252,10 +16314,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16278,28 +16340,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
@@ -16312,7 +16374,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -16341,7 +16403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>13.625</v>
       </c>
@@ -16373,17 +16435,17 @@
         <v>0.12499999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>88</v>
       </c>
@@ -16407,10 +16469,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>323.85599999999999</v>
+        <v>324.85599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16438,7 +16500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16464,7 +16526,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16490,7 +16552,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16516,7 +16578,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16542,7 +16604,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16568,7 +16630,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16594,7 +16656,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16620,7 +16682,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16640,7 +16702,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16660,7 +16722,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16680,7 +16742,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16701,7 +16763,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16722,7 +16784,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16743,7 +16805,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16764,7 +16826,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16785,7 +16847,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16806,7 +16868,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16827,7 +16889,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16848,7 +16910,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16869,7 +16931,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16890,7 +16952,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16911,7 +16973,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16932,7 +16994,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16953,7 +17015,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16974,7 +17036,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16995,7 +17057,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17016,7 +17078,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17037,7 +17099,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17058,7 +17120,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17079,7 +17141,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17100,7 +17162,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17109,7 +17171,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17118,7 +17180,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17127,7 +17189,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17136,7 +17198,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17145,7 +17207,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17154,7 +17216,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17163,7 +17225,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17172,7 +17234,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17181,7 +17243,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17190,7 +17252,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17199,7 +17261,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17208,7 +17270,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17217,7 +17279,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17226,7 +17288,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17235,7 +17297,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17244,7 +17306,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17253,7 +17315,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17262,7 +17324,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17271,7 +17333,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17280,7 +17342,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17289,7 +17351,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17298,7 +17360,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17307,7 +17369,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17316,7 +17378,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17325,7 +17387,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17334,7 +17396,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17343,7 +17405,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17352,7 +17414,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17361,7 +17423,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
